--- a/graph_expr/output/goodcol_outputs- Email_lb20_temp0_temp1_v1/Email_lb20_temp0_temp1_v1__simgrBYVIEWS_newcols.xlsx
+++ b/graph_expr/output/goodcol_outputs- Email_lb20_temp0_temp1_v1/Email_lb20_temp0_temp1_v1__simgrBYVIEWS_newcols.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="61">
   <si>
     <t xml:space="preserve">*****************************************************</t>
   </si>
@@ -192,6 +192,18 @@
   </si>
   <si>
     <t xml:space="preserve">IEFLTSIM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">email xiaoying to see why Mijoin takes longer in some cases when SG is smaller</t>
+  </si>
+  <si>
+    <t xml:space="preserve">also check if Mijoin is supposed to be 0 when exceedLimit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">change limit of numSoln</t>
+  </si>
+  <si>
+    <t xml:space="preserve">why are Mijoin times diferent for IESIM and IEFLTSIM even though SG are the same?</t>
   </si>
 </sst>
 </file>
@@ -284,8 +296,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -332,485 +348,485 @@
   </sheetPr>
   <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I22" activeCellId="1" sqref="F2:F6 I22"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F14" activeCellId="0" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.01171875" defaultRowHeight="13.45" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.01953125" defaultRowHeight="13.45" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+      <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="C8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="0" t="s">
+      <c r="D8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="0" t="s">
+      <c r="E8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="0" t="s">
+      <c r="F8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="0" t="s">
+      <c r="G8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H8" s="0" t="s">
+      <c r="H8" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="B9" s="0" t="s">
+      <c r="A9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="0" t="n">
+      <c r="C9" s="1" t="n">
         <v>0.74</v>
       </c>
-      <c r="D9" s="0" t="n">
+      <c r="D9" s="1" t="n">
         <v>0.11</v>
       </c>
-      <c r="E9" s="0" t="n">
+      <c r="E9" s="1" t="n">
         <v>0.85</v>
       </c>
-      <c r="F9" s="0" t="n">
+      <c r="F9" s="1" t="n">
         <v>39736</v>
       </c>
-      <c r="G9" s="0" t="n">
+      <c r="G9" s="1" t="n">
         <v>906</v>
       </c>
-      <c r="H9" s="0" t="n">
+      <c r="H9" s="1" t="n">
         <v>90003</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="n">
+      <c r="A10" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="0" t="n">
+      <c r="C10" s="1" t="n">
         <v>0.46</v>
       </c>
-      <c r="D10" s="0" t="n">
+      <c r="D10" s="1" t="n">
         <v>0.09</v>
       </c>
-      <c r="E10" s="0" t="n">
+      <c r="E10" s="1" t="n">
         <v>0.55</v>
       </c>
-      <c r="F10" s="0" t="n">
+      <c r="F10" s="1" t="n">
         <v>53443</v>
       </c>
-      <c r="G10" s="0" t="n">
+      <c r="G10" s="1" t="n">
         <v>685</v>
       </c>
-      <c r="H10" s="0" t="n">
+      <c r="H10" s="1" t="n">
         <v>23681</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="n">
+      <c r="A11" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B11" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="0" t="n">
+      <c r="C11" s="1" t="n">
         <v>0.47</v>
       </c>
-      <c r="D11" s="0" t="n">
+      <c r="D11" s="1" t="n">
         <v>32.17</v>
       </c>
-      <c r="E11" s="0" t="n">
+      <c r="E11" s="1" t="n">
         <v>32.63</v>
       </c>
-      <c r="F11" s="0" t="n">
+      <c r="F11" s="1" t="n">
         <v>26711</v>
       </c>
-      <c r="G11" s="0" t="n">
+      <c r="G11" s="1" t="n">
         <v>10864</v>
       </c>
-      <c r="H11" s="0" t="n">
+      <c r="H11" s="1" t="n">
         <v>12656492</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+      <c r="A12" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+      <c r="A13" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="0" t="s">
+      <c r="B13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="0" t="s">
+      <c r="C13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="0" t="s">
+      <c r="D13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E13" s="0" t="s">
+      <c r="E13" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F13" s="0" t="s">
+      <c r="F13" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G13" s="0" t="s">
+      <c r="G13" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H13" s="0" t="s">
+      <c r="H13" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I13" s="0" t="s">
+      <c r="I13" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="J13" s="0" t="s">
+      <c r="J13" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="B14" s="0" t="s">
+      <c r="A14" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D14" s="0" t="n">
+      <c r="C14" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" s="1" t="n">
         <v>0.03</v>
       </c>
-      <c r="E14" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" s="0" t="n">
+      <c r="E14" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" s="1" t="n">
         <v>1.88</v>
       </c>
-      <c r="G14" s="0" t="n">
+      <c r="G14" s="1" t="n">
         <v>93179</v>
       </c>
-      <c r="H14" s="0" t="n">
+      <c r="H14" s="1" t="n">
         <v>1401</v>
       </c>
-      <c r="I14" s="0" t="n">
+      <c r="I14" s="1" t="n">
         <v>10000000</v>
       </c>
-      <c r="J14" s="0" t="n">
+      <c r="J14" s="1" t="n">
         <v>92050</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="B15" s="0" t="s">
+      <c r="A15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D15" s="0" t="n">
+      <c r="C15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" s="1" t="n">
         <v>0.02</v>
       </c>
-      <c r="E15" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" s="0" t="n">
+      <c r="E15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" s="1" t="n">
         <v>1.85</v>
       </c>
-      <c r="G15" s="0" t="n">
+      <c r="G15" s="1" t="n">
         <v>93179</v>
       </c>
-      <c r="H15" s="0" t="n">
+      <c r="H15" s="1" t="n">
         <v>1401</v>
       </c>
-      <c r="I15" s="0" t="n">
+      <c r="I15" s="1" t="n">
         <v>10000000</v>
       </c>
-      <c r="J15" s="0" t="n">
+      <c r="J15" s="1" t="n">
         <v>92050</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="B16" s="0" t="s">
+      <c r="A16" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D16" s="0" t="n">
+      <c r="C16" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" s="1" t="n">
         <v>0.01</v>
       </c>
-      <c r="E16" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" s="0" t="n">
+      <c r="E16" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" s="1" t="n">
         <v>1.63</v>
       </c>
-      <c r="G16" s="0" t="n">
+      <c r="G16" s="1" t="n">
         <v>93179</v>
       </c>
-      <c r="H16" s="0" t="n">
+      <c r="H16" s="1" t="n">
         <v>1401</v>
       </c>
-      <c r="I16" s="0" t="n">
+      <c r="I16" s="1" t="n">
         <v>10000000</v>
       </c>
-      <c r="J16" s="0" t="n">
+      <c r="J16" s="1" t="n">
         <v>92050</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
+      <c r="A17" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B17" s="0" t="s">
+      <c r="B17" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="0" t="s">
+      <c r="C17" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
+      <c r="A18" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B18" s="0" t="s">
+      <c r="B18" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="0" t="s">
+      <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="0" t="s">
+      <c r="D18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E18" s="0" t="s">
+      <c r="E18" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F18" s="0" t="s">
+      <c r="F18" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G18" s="0" t="s">
+      <c r="G18" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H18" s="0" t="s">
+      <c r="H18" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I18" s="0" t="s">
+      <c r="I18" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="J18" s="0" t="s">
+      <c r="J18" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="B19" s="0" t="s">
+      <c r="A19" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D19" s="0" t="n">
+      <c r="C19" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" s="1" t="n">
         <v>0.02</v>
       </c>
-      <c r="E19" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" s="0" t="n">
+      <c r="E19" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" s="1" t="n">
         <v>1.79</v>
       </c>
-      <c r="G19" s="0" t="n">
+      <c r="G19" s="1" t="n">
         <v>93179</v>
       </c>
-      <c r="H19" s="0" t="n">
+      <c r="H19" s="1" t="n">
         <v>1401</v>
       </c>
-      <c r="I19" s="0" t="n">
+      <c r="I19" s="1" t="n">
         <v>10000000</v>
       </c>
-      <c r="J19" s="0" t="n">
+      <c r="J19" s="1" t="n">
         <v>92050</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
+      <c r="A21" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B21" s="0" t="n">
+      <c r="B21" s="1" t="n">
         <v>1.18</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
+      <c r="A22" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B22" s="0" t="n">
+      <c r="B22" s="1" t="n">
         <v>0.48</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
+      <c r="A23" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B23" s="0" t="n">
+      <c r="B23" s="1" t="n">
         <v>3.66</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
+      <c r="A24" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B24" s="0" t="n">
+      <c r="B24" s="1" t="n">
         <v>3.66</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
+      <c r="A25" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B25" s="0" t="n">
+      <c r="B25" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
+      <c r="A26" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B26" s="0" t="n">
+      <c r="B26" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
+      <c r="A27" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B27" s="0" t="n">
+      <c r="B27" s="1" t="n">
         <v>0.05</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
+      <c r="A28" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B28" s="0" t="n">
+      <c r="B28" s="1" t="n">
         <v>0.05</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
+      <c r="A29" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B29" s="0" t="n">
+      <c r="B29" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
+      <c r="A30" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B30" s="0" t="n">
+      <c r="B30" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="s">
+      <c r="A31" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B31" s="0" t="n">
+      <c r="B31" s="1" t="n">
         <v>93179</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="s">
+      <c r="A32" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B32" s="0" t="n">
+      <c r="B32" s="1" t="n">
         <v>1401</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="s">
+      <c r="A33" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B33" s="0" t="n">
+      <c r="B33" s="1" t="n">
         <v>10000000</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="s">
+      <c r="A34" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B34" s="0" t="s">
+      <c r="B34" s="1" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="s">
+      <c r="A35" s="1" t="s">
         <v>0</v>
       </c>
     </row>
@@ -832,342 +848,356 @@
   </sheetPr>
   <dimension ref="A1:K18"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="170" zoomScaleNormal="170" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2:F6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A14" activeCellId="0" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.01171875" defaultRowHeight="15.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="8" min="1" style="1" width="10"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="11.79"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="10" style="1" width="10"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="8" min="1" style="2" width="10"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="2" width="11.79"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="10" style="2" width="10"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2" t="s">
+      <c r="B1" s="3"/>
+      <c r="C1" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="3" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" s="1" t="n">
+      <c r="C2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2" t="n">
         <v>0.02</v>
       </c>
-      <c r="E2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" s="3" t="n">
+      <c r="E2" s="2" t="n">
+        <f aca="false">F2-D2</f>
+        <v>1.77</v>
+      </c>
+      <c r="F2" s="4" t="n">
         <v>1.79</v>
       </c>
-      <c r="G2" s="1" t="n">
+      <c r="G2" s="2" t="n">
         <v>93179</v>
       </c>
-      <c r="H2" s="1" t="n">
+      <c r="H2" s="2" t="n">
         <v>1401</v>
       </c>
-      <c r="I2" s="1" t="n">
+      <c r="I2" s="2" t="n">
         <v>10000000</v>
       </c>
-      <c r="J2" s="1" t="n">
+      <c r="J2" s="2" t="n">
         <v>92050</v>
       </c>
-      <c r="K2" s="4" t="n">
+      <c r="K2" s="5" t="n">
         <f aca="false">J2-H2</f>
         <v>90649</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C3" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" s="4" t="n">
+      <c r="C3" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" s="5" t="n">
         <v>0.05</v>
       </c>
-      <c r="E3" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" s="5" t="n">
+      <c r="E3" s="2" t="n">
+        <f aca="false">F3-D3</f>
+        <v>2.02</v>
+      </c>
+      <c r="F3" s="6" t="n">
         <v>2.07</v>
       </c>
-      <c r="G3" s="4" t="n">
+      <c r="G3" s="5" t="n">
         <v>93179</v>
       </c>
-      <c r="H3" s="4" t="n">
+      <c r="H3" s="5" t="n">
         <v>1400</v>
       </c>
-      <c r="I3" s="4" t="n">
+      <c r="I3" s="5" t="n">
         <v>10000000</v>
       </c>
-      <c r="J3" s="4" t="n">
+      <c r="J3" s="5" t="n">
         <v>92049</v>
       </c>
-      <c r="K3" s="4" t="n">
+      <c r="K3" s="5" t="n">
         <f aca="false">J3-H3</f>
         <v>90649</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="1" t="n">
+      <c r="B4" s="3"/>
+      <c r="C4" s="2" t="n">
         <v>4.1</v>
       </c>
-      <c r="D4" s="1" t="n">
+      <c r="D4" s="2" t="n">
         <v>0.13</v>
       </c>
-      <c r="E4" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" s="3" t="n">
+      <c r="E4" s="2" t="n">
+        <f aca="false">F4-D4</f>
+        <v>5.93</v>
+      </c>
+      <c r="F4" s="4" t="n">
         <v>6.06</v>
       </c>
-      <c r="G4" s="1" t="n">
+      <c r="G4" s="2" t="n">
         <v>93179</v>
       </c>
-      <c r="H4" s="1" t="n">
+      <c r="H4" s="2" t="n">
         <v>1345</v>
       </c>
-      <c r="I4" s="1" t="n">
+      <c r="I4" s="2" t="n">
         <v>10000000</v>
       </c>
-      <c r="J4" s="1" t="n">
+      <c r="J4" s="2" t="n">
         <v>80939</v>
       </c>
-      <c r="K4" s="4" t="n">
+      <c r="K4" s="5" t="n">
         <f aca="false">J4-H4</f>
         <v>79594</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="1" t="n">
+      <c r="B5" s="3"/>
+      <c r="C5" s="2" t="n">
         <v>0.28</v>
       </c>
-      <c r="D5" s="1" t="n">
+      <c r="D5" s="2" t="n">
         <v>2.1</v>
       </c>
-      <c r="E5" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" s="3" t="n">
+      <c r="E5" s="2" t="n">
+        <f aca="false">F5-D5</f>
+        <v>7.8</v>
+      </c>
+      <c r="F5" s="4" t="n">
         <v>9.9</v>
       </c>
-      <c r="G5" s="1" t="n">
+      <c r="G5" s="2" t="n">
         <v>93179</v>
       </c>
-      <c r="H5" s="1" t="n">
+      <c r="H5" s="2" t="n">
         <v>17789</v>
       </c>
-      <c r="I5" s="1" t="n">
+      <c r="I5" s="2" t="n">
         <v>10000000</v>
       </c>
-      <c r="J5" s="1" t="n">
+      <c r="J5" s="2" t="n">
         <v>2470157</v>
       </c>
-      <c r="K5" s="4" t="n">
+      <c r="K5" s="5" t="n">
         <f aca="false">J5-H5</f>
         <v>2452368</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="1" t="n">
+      <c r="B6" s="3"/>
+      <c r="C6" s="2" t="n">
         <v>0.59</v>
       </c>
-      <c r="D6" s="1" t="n">
+      <c r="D6" s="2" t="n">
         <v>0.12</v>
       </c>
-      <c r="E6" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" s="3" t="n">
+      <c r="E6" s="2" t="n">
+        <f aca="false">F6-D6</f>
+        <v>2.86</v>
+      </c>
+      <c r="F6" s="4" t="n">
         <v>2.98</v>
       </c>
-      <c r="G6" s="1" t="n">
+      <c r="G6" s="2" t="n">
         <v>93179</v>
       </c>
-      <c r="H6" s="1" t="n">
+      <c r="H6" s="2" t="n">
         <v>1345</v>
       </c>
-      <c r="I6" s="1" t="n">
+      <c r="I6" s="2" t="n">
         <v>10000000</v>
       </c>
-      <c r="J6" s="1" t="n">
+      <c r="J6" s="2" t="n">
         <v>80939</v>
       </c>
-      <c r="K6" s="4" t="n">
+      <c r="K6" s="5" t="n">
         <f aca="false">J6-H6</f>
         <v>79594</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K9" s="4"/>
+      <c r="A9" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="K9" s="5"/>
     </row>
     <row r="10" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="4"/>
+      <c r="A10" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="5"/>
     </row>
     <row r="11" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="4"/>
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="5"/>
     </row>
     <row r="12" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="4"/>
+      <c r="A12" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B12" s="3"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="5"/>
     </row>
     <row r="13" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="4"/>
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="5"/>
     </row>
     <row r="14" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="4"/>
+      <c r="A14" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="5"/>
     </row>
     <row r="15" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
     </row>
     <row r="16" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
     </row>
     <row r="17" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
     </row>
     <row r="18" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/graph_expr/output/goodcol_outputs- Email_lb20_temp0_temp1_v1/Email_lb20_temp0_temp1_v1__simgrBYVIEWS_newcols.xlsx
+++ b/graph_expr/output/goodcol_outputs- Email_lb20_temp0_temp1_v1/Email_lb20_temp0_temp1_v1__simgrBYVIEWS_newcols.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="57">
   <si>
     <t xml:space="preserve">*****************************************************</t>
   </si>
@@ -182,7 +182,7 @@
     <t xml:space="preserve">3 VIEWS</t>
   </si>
   <si>
-    <t xml:space="preserve">rmvEmpty</t>
+    <t xml:space="preserve">rmvEmpty, sim</t>
   </si>
   <si>
     <t xml:space="preserve">IESIM</t>
@@ -192,18 +192,6 @@
   </si>
   <si>
     <t xml:space="preserve">IEFLTSIM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">email xiaoying to see why Mijoin takes longer in some cases when SG is smaller</t>
-  </si>
-  <si>
-    <t xml:space="preserve">also check if Mijoin is supposed to be 0 when exceedLimit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">change limit of numSoln</t>
-  </si>
-  <si>
-    <t xml:space="preserve">why are Mijoin times diferent for IESIM and IEFLTSIM even though SG are the same?</t>
   </si>
 </sst>
 </file>
@@ -215,13 +203,12 @@
     <numFmt numFmtId="165" formatCode="General"/>
     <numFmt numFmtId="166" formatCode="#,##0"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
+      <family val="0"/>
     </font>
     <font>
       <sz val="10"/>
@@ -239,6 +226,13 @@
       <family val="0"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -252,6 +246,19 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="0"/>
     </font>
   </fonts>
   <fills count="2">
@@ -296,12 +303,8 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -309,23 +312,35 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -352,7 +367,7 @@
       <selection pane="topLeft" activeCell="F14" activeCellId="0" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.01953125" defaultRowHeight="13.45" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.03125" defaultRowHeight="13.45" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -849,7 +864,7 @@
   <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A14" activeCellId="0" sqref="A14"/>
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.01171875" defaultRowHeight="15.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -892,7 +907,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
         <v>51</v>
       </c>
@@ -929,41 +944,41 @@
         <v>90649</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
         <v>53</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C3" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" s="5" t="n">
-        <v>0.05</v>
+      <c r="C3" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" s="6" t="n">
+        <v>0.02</v>
       </c>
       <c r="E3" s="2" t="n">
         <f aca="false">F3-D3</f>
-        <v>2.02</v>
-      </c>
-      <c r="F3" s="6" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="G3" s="5" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="F3" s="7" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="G3" s="6" t="n">
         <v>93179</v>
       </c>
-      <c r="H3" s="5" t="n">
-        <v>1400</v>
-      </c>
-      <c r="I3" s="5" t="n">
+      <c r="H3" s="6" t="n">
+        <v>1345</v>
+      </c>
+      <c r="I3" s="6" t="n">
         <v>10000000</v>
       </c>
-      <c r="J3" s="5" t="n">
-        <v>92049</v>
+      <c r="J3" s="6" t="n">
+        <v>80946</v>
       </c>
       <c r="K3" s="5" t="n">
         <f aca="false">J3-H3</f>
-        <v>90649</v>
+        <v>79601</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1071,16 +1086,11 @@
         <v>79594</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="s">
-        <v>57</v>
-      </c>
+    <row r="9" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K9" s="5"/>
     </row>
-    <row r="10" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="3" t="s">
-        <v>58</v>
-      </c>
+    <row r="10" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
@@ -1092,7 +1102,7 @@
       <c r="J10" s="3"/>
       <c r="K10" s="5"/>
     </row>
-    <row r="11" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -1105,47 +1115,43 @@
       <c r="J11" s="3"/>
       <c r="K11" s="5"/>
     </row>
-    <row r="12" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="3" t="s">
-        <v>59</v>
-      </c>
+    <row r="12" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="7"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="9"/>
       <c r="H12" s="5"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
       <c r="K12" s="5"/>
     </row>
-    <row r="13" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
       <c r="K13" s="5"/>
     </row>
-    <row r="14" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="3" t="s">
-        <v>60</v>
-      </c>
+    <row r="14" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="7"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="9"/>
       <c r="H14" s="5"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
       <c r="K14" s="5"/>
     </row>
     <row r="15" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
